--- a/pred_ohlcv/54_21/2020-01-14 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-54.11149999999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-56.25519999999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-53.20339999999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-9.936499999999988</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3.934645530000013</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3.934645530000013</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3.854645530000013</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-103.99985447</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-103.99125447</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-67.26885446999999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-81.36299509999995</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-73.09859509999995</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-72.95859509999995</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-77.05829509999995</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-78.05829509999995</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-81.50289509999995</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-81.45682737999995</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-76.70282737999995</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-69.78062737999994</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-69.78062737999994</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-68.77352737999995</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-27.48140301999995</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-25.28140301999995</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-24.70280301999994</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-24.70280301999994</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-267.3633030199999</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-264.9757030199999</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-54.11149999999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-56.25519999999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-53.20339999999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-9.936499999999988</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-9.936499999999988</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-9.936499999999988</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-9.936499999999988</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-9.936499999999988</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-9.966499999999987</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2.816054469999987</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3.934645530000013</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3.934645530000013</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3.854645530000013</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-103.99985447</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-103.99125447</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-112.48955447</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-67.26885446999999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-83.32915446999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-34.93145446999999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-77.76489509999995</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-81.36299509999995</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-81.36299509999995</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-73.09859509999995</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-72.95859509999995</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-77.05829509999995</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-78.05829509999995</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-81.50289509999995</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-81.45682737999995</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-69.78062737999994</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-27.48140301999995</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-24.70280301999994</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-267.3633030199999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-264.9757030199999</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
